--- a/modulo_odoo/Informes/Informexls/Informe_Despachos.xlsx
+++ b/modulo_odoo/Informes/Informexls/Informe_Despachos.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Informe Despachos" sheetId="1" r:id="rId4"/>
-    <sheet name="Worksheet" sheetId="2" r:id="rId5"/>
+    <sheet name="Hoja" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
-  <si>
-    <t>Informe de despachos generado a corte: 31 - enero - 2022</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+  <si>
+    <t>Informe de despachos generado a corte: 08 - junio - 2022</t>
   </si>
   <si>
     <t>No.</t>
@@ -39,43 +39,34 @@
     <t>Numero Factura</t>
   </si>
   <si>
-    <t>DES-000128</t>
-  </si>
-  <si>
-    <t>SO5458</t>
-  </si>
-  <si>
-    <t>2022-01-27 15:18:28</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>FEPO 1002001992</t>
-  </si>
-  <si>
-    <t>DES-000130</t>
-  </si>
-  <si>
-    <t>SO5468</t>
-  </si>
-  <si>
-    <t>2022-01-27 15:25:26</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>FEPO 1002001991</t>
-  </si>
-  <si>
-    <t>DES-000125</t>
-  </si>
-  <si>
-    <t>2022-01-27 15:12:34</t>
+    <t>DES-000101</t>
+  </si>
+  <si>
+    <t>SO6123</t>
+  </si>
+  <si>
+    <t>2022-05-23 13:46:57</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>FEPO 0000000028</t>
+  </si>
+  <si>
+    <t>DES-000100</t>
+  </si>
+  <si>
+    <t>2022-05-23 13:35:25</t>
+  </si>
+  <si>
+    <t>SO5941</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>FEPO 0000000027</t>
   </si>
 </sst>
 </file>
@@ -103,7 +94,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -113,9 +104,6 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -124,10 +112,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -429,7 +417,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C1" sqref="C1"/>
@@ -437,20 +425,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15" customWidth="true" style="0"/>
-    <col min="3" max="3" width="60" customWidth="true" style="0"/>
-    <col min="4" max="4" width="60" customWidth="true" style="0"/>
-    <col min="5" max="5" width="20" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
+    <col min="1" max="1" width="9" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9" customWidth="true" style="0"/>
+    <col min="6" max="6" width="9" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1"/>
+      <c r="C1" s="1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -470,7 +465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>1</v>
       </c>
@@ -490,7 +485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
@@ -498,68 +493,43 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5"/>
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
